--- a/data/trans_orig/P62-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P62-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>196207</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>175870</v>
+        <v>176045</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>213397</v>
+        <v>213118</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5887747376784302</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5277469716490709</v>
+        <v>0.5282709443995434</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6403577364781808</v>
+        <v>0.6395204168498114</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>218</v>
@@ -765,19 +765,19 @@
         <v>226360</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>202042</v>
+        <v>201856</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>250097</v>
+        <v>252555</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3230369564639203</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2883324791973058</v>
+        <v>0.2880680091188097</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3569122042659334</v>
+        <v>0.3604201663445267</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>423</v>
@@ -786,19 +786,19 @@
         <v>422567</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>389969</v>
+        <v>388876</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>451142</v>
+        <v>454252</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4086836425293821</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3771570479539887</v>
+        <v>0.3760999750475561</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4363195381229834</v>
+        <v>0.4393274737055965</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>137040</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>119850</v>
+        <v>120129</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>157377</v>
+        <v>157202</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4112252623215698</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3596422635218191</v>
+        <v>0.3604795831501887</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4722530283509291</v>
+        <v>0.4717290556004567</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>463</v>
@@ -836,19 +836,19 @@
         <v>474365</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>450628</v>
+        <v>448170</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>498683</v>
+        <v>498869</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6769630435360796</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6430877957340666</v>
+        <v>0.6395798336554733</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7116675208026941</v>
+        <v>0.7119319908811903</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>595</v>
@@ -857,19 +857,19 @@
         <v>611404</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>582829</v>
+        <v>579719</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>644002</v>
+        <v>645095</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5913163574706179</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5636804618770166</v>
+        <v>0.5606725262944033</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6228429520460113</v>
+        <v>0.6239000249524438</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>247941</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>224694</v>
+        <v>227440</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>266612</v>
+        <v>269310</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5754852275518326</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5215284028573562</v>
+        <v>0.5279021802677248</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.618823068167251</v>
+        <v>0.6250839822960569</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>164</v>
@@ -982,19 +982,19 @@
         <v>170269</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>147022</v>
+        <v>148430</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>194565</v>
+        <v>195444</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2225026224026002</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1921235373719075</v>
+        <v>0.1939640708128045</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2542514251473743</v>
+        <v>0.2554008433630914</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>418</v>
@@ -1003,19 +1003,19 @@
         <v>418210</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>388473</v>
+        <v>388927</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>452230</v>
+        <v>449673</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3496494899372835</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3247876360045761</v>
+        <v>0.3251669367302802</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3780918956212229</v>
+        <v>0.3759546110819602</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>182897</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>164226</v>
+        <v>161528</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>206144</v>
+        <v>203398</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4245147724481674</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3811769318327491</v>
+        <v>0.3749160177039435</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4784715971426438</v>
+        <v>0.4720978197322752</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>586</v>
@@ -1053,19 +1053,19 @@
         <v>594977</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>570681</v>
+        <v>569802</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>618224</v>
+        <v>616816</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7774973775973998</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7457485748526257</v>
+        <v>0.7445991566369087</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8078764626280925</v>
+        <v>0.8060359291871956</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>768</v>
@@ -1074,19 +1074,19 @@
         <v>777874</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>743854</v>
+        <v>746411</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>807611</v>
+        <v>807157</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6503505100627165</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6219081043787771</v>
+        <v>0.6240453889180398</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6752123639954241</v>
+        <v>0.6748330632697199</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>197350</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>176342</v>
+        <v>178718</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>216985</v>
+        <v>216401</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4816258048174673</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4303564416704772</v>
+        <v>0.4361572328749278</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5295466183776003</v>
+        <v>0.5281193017523534</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>127</v>
@@ -1199,19 +1199,19 @@
         <v>131981</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>112005</v>
+        <v>113598</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>152554</v>
+        <v>152252</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2069851305346303</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1756572323810669</v>
+        <v>0.17815614556239</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2392495486425174</v>
+        <v>0.2387765370927671</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>327</v>
@@ -1220,19 +1220,19 @@
         <v>329330</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>298853</v>
+        <v>297544</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>361756</v>
+        <v>360278</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3144291495673068</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2853310716476824</v>
+        <v>0.2840807575375586</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3453881865814815</v>
+        <v>0.3439762717065787</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>212407</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>192772</v>
+        <v>193356</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>233415</v>
+        <v>231039</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5183741951825327</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4704533816223997</v>
+        <v>0.4718806982476466</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5696435583295227</v>
+        <v>0.5638427671250722</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>508</v>
@@ -1270,19 +1270,19 @@
         <v>505653</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>485080</v>
+        <v>485382</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>525629</v>
+        <v>524036</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7930148694653697</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7607504513574826</v>
+        <v>0.761223462907233</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8243427676189331</v>
+        <v>0.8218438544376101</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>724</v>
@@ -1291,19 +1291,19 @@
         <v>718061</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>685635</v>
+        <v>687113</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>748538</v>
+        <v>749847</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6855708504326932</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6546118134185186</v>
+        <v>0.6560237282934213</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7146689283523175</v>
+        <v>0.7159192424624413</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>71311</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>59517</v>
+        <v>59917</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>82676</v>
+        <v>82804</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5028038045906</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4196457114068115</v>
+        <v>0.4224654050905141</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5829395394369284</v>
+        <v>0.5838386757171437</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>34</v>
@@ -1416,19 +1416,19 @@
         <v>34198</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24848</v>
+        <v>24015</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>46374</v>
+        <v>45953</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1903565866112566</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1383081469511957</v>
+        <v>0.1336709765014094</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2581280792956251</v>
+        <v>0.2557846592405602</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>107</v>
@@ -1437,19 +1437,19 @@
         <v>105509</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>90272</v>
+        <v>89505</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>122240</v>
+        <v>122516</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3281974029698517</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2808025138828188</v>
+        <v>0.278417000537912</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.380240806472474</v>
+        <v>0.3811010953059534</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>70515</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>59150</v>
+        <v>59022</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>82309</v>
+        <v>81909</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4971961954094</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4170604605630716</v>
+        <v>0.4161613242828563</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5803542885931885</v>
+        <v>0.5775345949094858</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>146</v>
@@ -1487,19 +1487,19 @@
         <v>145456</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>133280</v>
+        <v>133701</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>154806</v>
+        <v>155639</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8096434133887433</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7418719207043748</v>
+        <v>0.7442153407594398</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8616918530488042</v>
+        <v>0.8663290234985905</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>218</v>
@@ -1508,19 +1508,19 @@
         <v>215971</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>199240</v>
+        <v>198964</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>231208</v>
+        <v>231975</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6718025970301483</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.619759193527526</v>
+        <v>0.6188989046940466</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7191974861171813</v>
+        <v>0.721582999462088</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>712808</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>676686</v>
+        <v>675269</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>745821</v>
+        <v>747297</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5417844848186301</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5143289989351573</v>
+        <v>0.5132519993476859</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5668763506927399</v>
+        <v>0.5679986388440181</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>543</v>
@@ -1633,19 +1633,19 @@
         <v>562808</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>521274</v>
+        <v>524166</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>604123</v>
+        <v>601764</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2464934325130002</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2283027552410863</v>
+        <v>0.2295694366406244</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2645879851166562</v>
+        <v>0.2635550263200301</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1275</v>
@@ -1654,19 +1654,19 @@
         <v>1275616</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1219202</v>
+        <v>1219792</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1332579</v>
+        <v>1332465</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3544436204484188</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3387683997837699</v>
+        <v>0.3389321176008325</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3702712994516837</v>
+        <v>0.3702394942658682</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>602859</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>569846</v>
+        <v>568370</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>638981</v>
+        <v>640398</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4582155151813699</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4331236493072601</v>
+        <v>0.4320013611559817</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4856710010648427</v>
+        <v>0.486748000652314</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1703</v>
@@ -1704,19 +1704,19 @@
         <v>1720451</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1679136</v>
+        <v>1681495</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1761985</v>
+        <v>1759093</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7535065674869998</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7354120148833438</v>
+        <v>0.7364449736799699</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7716972447589139</v>
+        <v>0.7704305633593755</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2305</v>
@@ -1725,19 +1725,19 @@
         <v>2323310</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2266347</v>
+        <v>2266461</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2379724</v>
+        <v>2379134</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6455563795515813</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6297287005483163</v>
+        <v>0.629760505734132</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6612316002162302</v>
+        <v>0.6610678823991675</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>249033</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>222860</v>
+        <v>222202</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>277071</v>
+        <v>276224</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3306154784779815</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2958678071846877</v>
+        <v>0.2949937234532962</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3678385082358916</v>
+        <v>0.3667129560045023</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>227</v>
@@ -2090,19 +2090,19 @@
         <v>246417</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>220210</v>
+        <v>221056</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>272802</v>
+        <v>274096</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2798581914835269</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2500952418474813</v>
+        <v>0.2510554339197464</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3098248947001375</v>
+        <v>0.3112941597663852</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>453</v>
@@ -2111,19 +2111,19 @@
         <v>495450</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>458938</v>
+        <v>456790</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>534288</v>
+        <v>536560</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3032599282540391</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2809117396643659</v>
+        <v>0.2795968968545147</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3270326881341097</v>
+        <v>0.3284228512073035</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>504209</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>476171</v>
+        <v>477018</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>530382</v>
+        <v>531040</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6693845215220184</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6321614917641083</v>
+        <v>0.6332870439954971</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7041321928153123</v>
+        <v>0.7050062765467037</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>583</v>
@@ -2161,19 +2161,19 @@
         <v>634088</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>607703</v>
+        <v>606409</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>660295</v>
+        <v>659449</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7201418085164731</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6901751052998625</v>
+        <v>0.6887058402336148</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7499047581525188</v>
+        <v>0.7489445660802536</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1064</v>
@@ -2182,19 +2182,19 @@
         <v>1138296</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1099458</v>
+        <v>1097186</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1174808</v>
+        <v>1176956</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6967400717459609</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6729673118658902</v>
+        <v>0.6715771487926965</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.719088260335634</v>
+        <v>0.7204031031454853</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>249926</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>222639</v>
+        <v>225146</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>273681</v>
+        <v>275713</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4258984307863072</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.379398747874384</v>
+        <v>0.3836715643949504</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4663789783309798</v>
+        <v>0.4698425489107053</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>227</v>
@@ -2307,19 +2307,19 @@
         <v>244325</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>219116</v>
+        <v>219146</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>271985</v>
+        <v>272589</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2947284459703949</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2643180589560979</v>
+        <v>0.2643540177672549</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3280940105959731</v>
+        <v>0.3288229857113438</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>454</v>
@@ -2328,19 +2328,19 @@
         <v>494251</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>458001</v>
+        <v>456581</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>530481</v>
+        <v>529950</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3490955346659858</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3234913705152699</v>
+        <v>0.3224884163115774</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3746850241139046</v>
+        <v>0.3743096830481901</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>336894</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>313139</v>
+        <v>311107</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>364181</v>
+        <v>361674</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5741015692136928</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5336210216690203</v>
+        <v>0.5301574510892948</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6206012521256162</v>
+        <v>0.6163284356050497</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>550</v>
@@ -2378,19 +2378,19 @@
         <v>584660</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>557000</v>
+        <v>556396</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>609869</v>
+        <v>609839</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7052715540296051</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6719059894040269</v>
+        <v>0.6711770142886562</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7356819410439021</v>
+        <v>0.7356459822327456</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>871</v>
@@ -2399,19 +2399,19 @@
         <v>921554</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>885324</v>
+        <v>885855</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>957804</v>
+        <v>959224</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6509044653340141</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6253149758860954</v>
+        <v>0.6256903169518099</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6765086294847301</v>
+        <v>0.6775115836884226</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>258494</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>236492</v>
+        <v>239109</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>278066</v>
+        <v>280048</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6076062308111511</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5558887735935477</v>
+        <v>0.5620412899701401</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6536115079673446</v>
+        <v>0.6582703773543152</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>162</v>
@@ -2524,19 +2524,19 @@
         <v>173752</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>149920</v>
+        <v>151789</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>193807</v>
+        <v>197910</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2948606834166153</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2544181290201188</v>
+        <v>0.2575895761996813</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3288946551332375</v>
+        <v>0.3358580529757138</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>394</v>
@@ -2545,19 +2545,19 @@
         <v>432245</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>398627</v>
+        <v>399827</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>464646</v>
+        <v>464923</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4259848298041635</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3928539986226534</v>
+        <v>0.3940362802768568</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4579164248646606</v>
+        <v>0.4581893077789385</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>166936</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>147364</v>
+        <v>145382</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>188938</v>
+        <v>186321</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.392393769188849</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3463884920326554</v>
+        <v>0.341729622645685</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4441112264064524</v>
+        <v>0.4379587100298599</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>388</v>
@@ -2595,19 +2595,19 @@
         <v>415515</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>395460</v>
+        <v>391357</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>439347</v>
+        <v>437478</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7051393165833847</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6711053448667625</v>
+        <v>0.6641419470242862</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7455818709798812</v>
+        <v>0.7424104238003187</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>552</v>
@@ -2616,19 +2616,19 @@
         <v>582451</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>550050</v>
+        <v>549773</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>616069</v>
+        <v>614869</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5740151701958365</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5420835751353393</v>
+        <v>0.5418106922210617</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6071460013773465</v>
+        <v>0.6059637197231432</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>107296</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>91351</v>
+        <v>92842</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>122309</v>
+        <v>122711</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5247568264668074</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4467716245483234</v>
+        <v>0.4540666191373645</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5981806041614212</v>
+        <v>0.6001477204905133</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>69</v>
@@ -2741,19 +2741,19 @@
         <v>79511</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>63670</v>
+        <v>63180</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>95698</v>
+        <v>97378</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3023054474601374</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2420774762999802</v>
+        <v>0.2402154580651052</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3638487597600509</v>
+        <v>0.3702367699144364</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>164</v>
@@ -2762,19 +2762,19 @@
         <v>186807</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>163045</v>
+        <v>165939</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>208750</v>
+        <v>208649</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3996013555107216</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3487709622103657</v>
+        <v>0.354961603559982</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4465387296428732</v>
+        <v>0.4463231645975925</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>97172</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>82159</v>
+        <v>81757</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>113117</v>
+        <v>111626</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4752431735331926</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.401819395838579</v>
+        <v>0.3998522795094867</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5532283754516769</v>
+        <v>0.5459333808626354</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>171</v>
@@ -2812,19 +2812,19 @@
         <v>183504</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>167317</v>
+        <v>165637</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>199345</v>
+        <v>199835</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6976945525398626</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6361512402399491</v>
+        <v>0.6297632300855635</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7579225237000199</v>
+        <v>0.7597845419348948</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>266</v>
@@ -2833,19 +2833,19 @@
         <v>280677</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>258734</v>
+        <v>258835</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>304439</v>
+        <v>301545</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6003986444892784</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5534612703571269</v>
+        <v>0.5536768354024076</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6512290377896344</v>
+        <v>0.645038396440018</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>864749</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>816665</v>
+        <v>818861</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>905951</v>
+        <v>914583</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4389678244908412</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4145590975790861</v>
+        <v>0.4156736853936056</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4598828080828585</v>
+        <v>0.4642646833133776</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>685</v>
@@ -2958,19 +2958,19 @@
         <v>744005</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>695142</v>
+        <v>698115</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>788775</v>
+        <v>791954</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2904257452751104</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2713518342259049</v>
+        <v>0.2725125221138756</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3079022886184996</v>
+        <v>0.3091428670130831</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1465</v>
@@ -2979,19 +2979,19 @@
         <v>1608754</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1543583</v>
+        <v>1541411</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1678931</v>
+        <v>1674199</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3549975118233062</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3406165432306381</v>
+        <v>0.3401372583171259</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3704832020330578</v>
+        <v>0.3694390304613128</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>1105211</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1064009</v>
+        <v>1055377</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1153295</v>
+        <v>1151099</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5610321755091588</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5401171919171416</v>
+        <v>0.5357353166866224</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5854409024209138</v>
+        <v>0.5843263146063944</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1692</v>
@@ -3029,19 +3029,19 @@
         <v>1817767</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1772997</v>
+        <v>1769818</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1866630</v>
+        <v>1863657</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7095742547248896</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6920977113815004</v>
+        <v>0.6908571329869168</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7286481657740951</v>
+        <v>0.7274874778861243</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2753</v>
@@ -3050,19 +3050,19 @@
         <v>2922978</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2852801</v>
+        <v>2857533</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2988149</v>
+        <v>2990321</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6450024881766938</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6295167979669423</v>
+        <v>0.6305609695386872</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6593834567693619</v>
+        <v>0.6598627416828741</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>298510</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>270518</v>
+        <v>272563</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>327012</v>
+        <v>327558</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3614340674237611</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3275421562952976</v>
+        <v>0.3300178615887727</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3959438782838431</v>
+        <v>0.3966050499333066</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>254</v>
@@ -3415,19 +3415,19 @@
         <v>291452</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>260496</v>
+        <v>258819</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>321702</v>
+        <v>320569</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3001826057698545</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2682995359057954</v>
+        <v>0.2665721461828003</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3313391170144446</v>
+        <v>0.3301712792856338</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>550</v>
@@ -3436,19 +3436,19 @@
         <v>589962</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>547324</v>
+        <v>546681</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>630301</v>
+        <v>630349</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3283366953064428</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3046069914383754</v>
+        <v>0.3042490860280029</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3507866858251083</v>
+        <v>0.3508137613125405</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>527394</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>498892</v>
+        <v>498346</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>555386</v>
+        <v>553341</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6385659325762389</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6040561217161569</v>
+        <v>0.6033949500666933</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6724578437047023</v>
+        <v>0.6699821384112273</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>653</v>
@@ -3486,19 +3486,19 @@
         <v>679464</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>649214</v>
+        <v>650347</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>710420</v>
+        <v>712097</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6998173942301454</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6686608829855556</v>
+        <v>0.6698287207143662</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7317004640942046</v>
+        <v>0.7334278538171997</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1146</v>
@@ -3507,19 +3507,19 @@
         <v>1206858</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1166519</v>
+        <v>1166471</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1249496</v>
+        <v>1250139</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6716633046935573</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6492133141748919</v>
+        <v>0.6491862386874596</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6953930085616248</v>
+        <v>0.6957509139719974</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>238374</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>215235</v>
+        <v>215789</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>262197</v>
+        <v>261641</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4655219746328694</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4203338461495619</v>
+        <v>0.421416119652609</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5120454827366105</v>
+        <v>0.5109595101977051</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>173</v>
@@ -3632,19 +3632,19 @@
         <v>197820</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>173534</v>
+        <v>174385</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>224906</v>
+        <v>223061</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2731827878207805</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2396449280231194</v>
+        <v>0.2408206357654692</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3105880555106329</v>
+        <v>0.3080403035615502</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>416</v>
@@ -3653,19 +3653,19 @@
         <v>436194</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>403036</v>
+        <v>404024</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>470664</v>
+        <v>470837</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3528541647045823</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3260313444021077</v>
+        <v>0.3268309260012565</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3807383992764057</v>
+        <v>0.3808787493966023</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>273684</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>249861</v>
+        <v>250417</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>296823</v>
+        <v>296269</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5344780253671305</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4879545172633895</v>
+        <v>0.4890404898022949</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5796661538504381</v>
+        <v>0.5785838803473908</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>503</v>
@@ -3703,19 +3703,19 @@
         <v>526310</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>499224</v>
+        <v>501069</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>550596</v>
+        <v>549745</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7268172121792195</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.689411944489367</v>
+        <v>0.6919596964384498</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7603550719768806</v>
+        <v>0.7591793642345308</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>763</v>
@@ -3724,19 +3724,19 @@
         <v>799993</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>765523</v>
+        <v>765350</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>833151</v>
+        <v>832163</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6471458352954178</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6192616007235943</v>
+        <v>0.6191212506033978</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6739686555978923</v>
+        <v>0.6731690739987435</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>213599</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>194051</v>
+        <v>195454</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>230008</v>
+        <v>232324</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5976308220297629</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5429365791552028</v>
+        <v>0.5468613620959369</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6435413820035298</v>
+        <v>0.650021972055426</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>131</v>
@@ -3849,19 +3849,19 @@
         <v>156025</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>134713</v>
+        <v>136687</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>176935</v>
+        <v>177528</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3392346285318713</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2928981239028989</v>
+        <v>0.2971901492129365</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3846998116778524</v>
+        <v>0.3859879810008244</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>346</v>
@@ -3870,19 +3870,19 @@
         <v>369624</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>339564</v>
+        <v>340471</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>401556</v>
+        <v>398263</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.452226976016688</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4154496220640808</v>
+        <v>0.4165588272253365</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4912958841997589</v>
+        <v>0.4872670939279204</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>143811</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>127402</v>
+        <v>125086</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>163359</v>
+        <v>161956</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4023691779702371</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3564586179964699</v>
+        <v>0.3499780279445743</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4570634208447973</v>
+        <v>0.4531386379040631</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>288</v>
@@ -3920,19 +3920,19 @@
         <v>303906</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>282996</v>
+        <v>282403</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>325218</v>
+        <v>323244</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6607653714681287</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6153001883221475</v>
+        <v>0.6140120189991755</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7071018760971004</v>
+        <v>0.7028098507870634</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>424</v>
@@ -3941,19 +3941,19 @@
         <v>447717</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>415785</v>
+        <v>419078</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>477777</v>
+        <v>476870</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.547773023983312</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.508704115800241</v>
+        <v>0.5127329060720796</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5845503779359192</v>
+        <v>0.5834411727746635</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>137347</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>122251</v>
+        <v>119481</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>151795</v>
+        <v>152511</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.610910096381499</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5437629551244182</v>
+        <v>0.5314405077062893</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6751721812808166</v>
+        <v>0.6783556138231879</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>77</v>
@@ -4066,19 +4066,19 @@
         <v>92080</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>75750</v>
+        <v>76152</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>109537</v>
+        <v>110046</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.322465805399946</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2652791228052669</v>
+        <v>0.2666864346100269</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3836009050834577</v>
+        <v>0.3853817210393219</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>212</v>
@@ -4087,19 +4087,19 @@
         <v>229427</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>204257</v>
+        <v>207045</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>253053</v>
+        <v>254115</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4495279769654224</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4002110749150548</v>
+        <v>0.4056725718690349</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4958183276314879</v>
+        <v>0.4978987042932052</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>87477</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>73029</v>
+        <v>72313</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>102573</v>
+        <v>105343</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.389089903618501</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3248278187191835</v>
+        <v>0.3216443861768121</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4562370448755819</v>
+        <v>0.4685594922937107</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>184</v>
@@ -4137,19 +4137,19 @@
         <v>193470</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>176013</v>
+        <v>175504</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>209800</v>
+        <v>209398</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.677534194600054</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6163990949165422</v>
+        <v>0.6146182789606781</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7347208771947331</v>
+        <v>0.7333135653899732</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>265</v>
@@ -4158,19 +4158,19 @@
         <v>280947</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>257321</v>
+        <v>256259</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>306117</v>
+        <v>303329</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5504720230345777</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5041816723685121</v>
+        <v>0.5021012957067945</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5997889250849451</v>
+        <v>0.5943274281309647</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>887830</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>838959</v>
+        <v>843273</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>925840</v>
+        <v>933595</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4623645276883678</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.436913508798331</v>
+        <v>0.4391598738387267</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.482159246097619</v>
+        <v>0.4861979037037354</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>635</v>
@@ -4283,19 +4283,19 @@
         <v>737377</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>686649</v>
+        <v>689701</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>787941</v>
+        <v>786983</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.302138265815819</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2813527506885308</v>
+        <v>0.2826034769056948</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3228568564455311</v>
+        <v>0.322464556876345</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1524</v>
@@ -4304,19 +4304,19 @@
         <v>1625207</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1556905</v>
+        <v>1568072</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1690771</v>
+        <v>1691958</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3726921106901352</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3570292064699285</v>
+        <v>0.3595899810653557</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3877274018464117</v>
+        <v>0.3879995667985189</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>1032365</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>994355</v>
+        <v>986600</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1081236</v>
+        <v>1076922</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5376354723116322</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.517840753902381</v>
+        <v>0.5138020962962645</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5630864912016692</v>
+        <v>0.5608401261612733</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1628</v>
@@ -4354,19 +4354,19 @@
         <v>1703150</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1652586</v>
+        <v>1653544</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1753878</v>
+        <v>1750826</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.697861734184181</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6771431435544688</v>
+        <v>0.677535443123655</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7186472493114691</v>
+        <v>0.7173965230943052</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2598</v>
@@ -4375,19 +4375,19 @@
         <v>2735515</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2669951</v>
+        <v>2668764</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2803817</v>
+        <v>2792650</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6273078893098648</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6122725981535886</v>
+        <v>0.6120004332014811</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6429707935300717</v>
+        <v>0.6404100189346443</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>143459</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>124311</v>
+        <v>125618</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>162242</v>
+        <v>161486</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.449471475153886</v>
+        <v>0.4494714751538862</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3894779985501139</v>
+        <v>0.3935748630216835</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5083197425777832</v>
+        <v>0.5059508875415983</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>295</v>
@@ -4740,19 +4740,19 @@
         <v>176882</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>159342</v>
+        <v>158767</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>195638</v>
+        <v>195086</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3939608947945697</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3548963494675478</v>
+        <v>0.353615774888392</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4357352437068533</v>
+        <v>0.4345062487760054</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>461</v>
@@ -4761,19 +4761,19 @@
         <v>320341</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>296654</v>
+        <v>295393</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>347611</v>
+        <v>350842</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4170258589377148</v>
+        <v>0.4170258589377147</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3861895422639585</v>
+        <v>0.3845488083276037</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4525271401591385</v>
+        <v>0.4567330901732847</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>175714</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>156931</v>
+        <v>157687</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>194862</v>
+        <v>193555</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5505285248461139</v>
+        <v>0.550528524846114</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4916802574222167</v>
+        <v>0.4940491124584016</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6105220014498858</v>
+        <v>0.6064251369783165</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>352</v>
@@ -4811,19 +4811,19 @@
         <v>272101</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>253345</v>
+        <v>253897</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>289641</v>
+        <v>290216</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6060391052054304</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5642647562931467</v>
+        <v>0.5654937512239947</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6451036505324521</v>
+        <v>0.646384225111608</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>495</v>
@@ -4832,19 +4832,19 @@
         <v>447815</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>420545</v>
+        <v>417314</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>471502</v>
+        <v>472763</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5829741410622853</v>
+        <v>0.5829741410622852</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5474728598408615</v>
+        <v>0.5432669098267153</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6138104577360414</v>
+        <v>0.6154511916723963</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>262635</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>239476</v>
+        <v>239485</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>285834</v>
+        <v>285828</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5915202434175297</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.539360862313258</v>
+        <v>0.5393801940473161</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6437697185949488</v>
+        <v>0.6437561284881068</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>477</v>
@@ -4957,19 +4957,19 @@
         <v>267139</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>245799</v>
+        <v>246070</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>288626</v>
+        <v>288374</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3554638218375068</v>
+        <v>0.3554638218375067</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3270675003067686</v>
+        <v>0.3274288196650851</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3840544909257165</v>
+        <v>0.3837197023426165</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>821</v>
@@ -4978,19 +4978,19 @@
         <v>529774</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>495137</v>
+        <v>497229</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>560758</v>
+        <v>562737</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.4431317497506896</v>
+        <v>0.4431317497506899</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4141594579036935</v>
+        <v>0.415909055130079</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4690486474502891</v>
+        <v>0.470703468144973</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>181365</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>158166</v>
+        <v>158172</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>204524</v>
+        <v>204515</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4084797565824703</v>
+        <v>0.4084797565824702</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3562302814050511</v>
+        <v>0.3562438715118932</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4606391376867421</v>
+        <v>0.4606198059526841</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>662</v>
@@ -5028,19 +5028,19 @@
         <v>484384</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>462897</v>
+        <v>463149</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>505724</v>
+        <v>505453</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6445361781624932</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6159455090742835</v>
+        <v>0.6162802976573836</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6729324996932313</v>
+        <v>0.672571180334915</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>802</v>
@@ -5049,19 +5049,19 @@
         <v>665749</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>634765</v>
+        <v>632786</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>700386</v>
+        <v>698294</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.5568682502493102</v>
+        <v>0.5568682502493103</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5309513525497108</v>
+        <v>0.5292965318550269</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5858405420963065</v>
+        <v>0.5840909448699207</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>236277</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>212800</v>
+        <v>213374</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>258412</v>
+        <v>259298</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.571831034424146</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.515012757552532</v>
+        <v>0.5164010925328124</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.625402303887709</v>
+        <v>0.6275460631200682</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>330</v>
@@ -5174,19 +5174,19 @@
         <v>181620</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>164305</v>
+        <v>164169</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>200926</v>
+        <v>201004</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3298485649978182</v>
+        <v>0.3298485649978184</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2984022102717769</v>
+        <v>0.2981543660506737</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3649118715802392</v>
+        <v>0.365053020339874</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>653</v>
@@ -5195,19 +5195,19 @@
         <v>417897</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>388778</v>
+        <v>388631</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>447155</v>
+        <v>447961</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4335885453682431</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4033758250133799</v>
+        <v>0.4032235325820072</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4639455384579934</v>
+        <v>0.4647812783681514</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>176917</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>154782</v>
+        <v>153896</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>200394</v>
+        <v>199820</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4281689655758542</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3745976961122909</v>
+        <v>0.3724539368799316</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4849872424474677</v>
+        <v>0.4835989074671875</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>499</v>
@@ -5245,19 +5245,19 @@
         <v>368996</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>349690</v>
+        <v>349612</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>386311</v>
+        <v>386447</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6701514350021816</v>
+        <v>0.6701514350021817</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6350881284197608</v>
+        <v>0.6349469796601261</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7015977897282225</v>
+        <v>0.7018456339493265</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>638</v>
@@ -5266,19 +5266,19 @@
         <v>545913</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>516655</v>
+        <v>515849</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>575032</v>
+        <v>575179</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5664114546317569</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5360544615420066</v>
+        <v>0.5352187216318486</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5966241749866203</v>
+        <v>0.596776467417993</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>219397</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>196117</v>
+        <v>195472</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>240566</v>
+        <v>242060</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.5899892012228174</v>
+        <v>0.5899892012228173</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.527387341884115</v>
+        <v>0.5256508209083177</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.646915537401849</v>
+        <v>0.650932143623708</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>311</v>
@@ -5391,19 +5391,19 @@
         <v>174512</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>156737</v>
+        <v>156861</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>190564</v>
+        <v>192954</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4114829923590059</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3695723243223096</v>
+        <v>0.3698624573991332</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4493319958176867</v>
+        <v>0.4549672489041945</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>600</v>
@@ -5412,19 +5412,19 @@
         <v>393909</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>367381</v>
+        <v>366819</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>422843</v>
+        <v>421527</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.494878521260349</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4615510774210029</v>
+        <v>0.4608452826333811</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5312291026894183</v>
+        <v>0.5295756682482713</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>152469</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>131300</v>
+        <v>129806</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>175749</v>
+        <v>176394</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4100107987771828</v>
+        <v>0.4100107987771827</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3530844625981511</v>
+        <v>0.3490678563762921</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4726126581158852</v>
+        <v>0.4743491790916823</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>336</v>
@@ -5462,19 +5462,19 @@
         <v>249593</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>233541</v>
+        <v>231151</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>267368</v>
+        <v>267244</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.5885170076409941</v>
+        <v>0.5885170076409942</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5506680041823133</v>
+        <v>0.5450327510958053</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6304276756776904</v>
+        <v>0.6301375426008669</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>457</v>
@@ -5483,19 +5483,19 @@
         <v>402062</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>373128</v>
+        <v>374444</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>428590</v>
+        <v>429152</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.505121478739651</v>
+        <v>0.5051214787396509</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4687708973105814</v>
+        <v>0.4704243317517287</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5384489225789969</v>
+        <v>0.5391547173666189</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>861768</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>815274</v>
+        <v>817044</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>905377</v>
+        <v>907684</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.556614022787887</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5265838453705736</v>
+        <v>0.5277265034796794</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5847808103416201</v>
+        <v>0.5862710883432144</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1413</v>
@@ -5608,19 +5608,19 @@
         <v>800153</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>763543</v>
+        <v>763087</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>838981</v>
+        <v>837454</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3678479732679076</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3510176422957937</v>
+        <v>0.3508081118653797</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3856982378548635</v>
+        <v>0.3849960247209802</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2535</v>
@@ -5629,19 +5629,19 @@
         <v>1661921</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1603766</v>
+        <v>1603502</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1718555</v>
+        <v>1722091</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4463378239776579</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4307193580741106</v>
+        <v>0.4306484080018939</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.461547924540181</v>
+        <v>0.4624977226062768</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>686465</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>642856</v>
+        <v>640549</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>732959</v>
+        <v>731189</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.443385977212113</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4152191896583798</v>
+        <v>0.4137289116567857</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4734161546294264</v>
+        <v>0.4722734965203206</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1849</v>
@@ -5679,19 +5679,19 @@
         <v>1375074</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1336246</v>
+        <v>1337773</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1411684</v>
+        <v>1412140</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6321520267320924</v>
+        <v>0.6321520267320923</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6143017621451364</v>
+        <v>0.6150039752790198</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6489823577042059</v>
+        <v>0.6491918881346201</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2392</v>
@@ -5700,19 +5700,19 @@
         <v>2061538</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2004904</v>
+        <v>2001368</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2119693</v>
+        <v>2119957</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.553662176022342</v>
+        <v>0.5536621760223421</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5384520754598189</v>
+        <v>0.5375022773937234</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5692806419258895</v>
+        <v>0.5693515919981061</v>
       </c>
     </row>
     <row r="18">
